--- a/storage/app/categories.xlsx
+++ b/storage/app/categories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christian/Code/ShoppingApp/storage/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cankert/Entwicklung/ShoppingApp/storage/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133A1A3F-DD6E-FD47-BB27-A1EEC44772C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1A4D77-5FF8-F540-9A3E-EBA124C8F6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{0232B3AA-4449-734B-A677-8E458C88EE32}"/>
+    <workbookView xWindow="18940" yWindow="2940" windowWidth="25600" windowHeight="14180" xr2:uid="{0232B3AA-4449-734B-A677-8E458C88EE32}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Fleisch</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Haushalt</t>
+  </si>
+  <si>
+    <t>Bäcker</t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244C6206-B847-AE43-8EEF-75F1C570C044}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,6 +592,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/storage/app/categories.xlsx
+++ b/storage/app/categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cankert/Entwicklung/ShoppingApp/storage/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1A4D77-5FF8-F540-9A3E-EBA124C8F6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E163430C-ADC5-3D4C-94CB-187E4D1BD6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18940" yWindow="2940" windowWidth="25600" windowHeight="14180" xr2:uid="{0232B3AA-4449-734B-A677-8E458C88EE32}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,7 +581,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -589,7 +589,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
